--- a/results/output_favorite_first_True_formatted.xlsx
+++ b/results/output_favorite_first_True_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49FE7E-0B3D-4582-9C38-710D88EC823D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DF192-5494-4DE4-8CEF-38D2F1FA9EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>US Open</t>
   </si>
   <si>
-    <t>All tournaments</t>
+    <t>All set groups</t>
   </si>
   <si>
     <t>All sets</t>
@@ -118,11 +118,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -136,7 +136,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +512,7 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -509,8 +530,23 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2009</v>
       </c>
@@ -532,8 +568,23 @@
       <c r="G2" s="5">
         <v>0.43875174005868439</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5">
+        <v>6.3822902780311885E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.76423334994776893</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.87714285193077257</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.26417449276023308</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>3</v>
@@ -553,8 +604,23 @@
       <c r="G3" s="5">
         <v>0.56062020238586885</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5">
+        <v>0.73789905748175233</v>
+      </c>
+      <c r="I3" s="5">
+        <v>9.0574701618287554E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.92736674887990334</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.6435053599235474</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>4</v>
@@ -574,8 +640,23 @@
       <c r="G4" s="5">
         <v>1.297429020683416E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5">
+        <v>4.9039634820702283E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.89298832156682273</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.63611030873966179</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.22776952897795549</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>5</v>
@@ -595,8 +676,23 @@
       <c r="G5" s="5">
         <v>8.3697462588145477E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5">
+        <v>0.56658981687302434</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6.0081758789084727E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7.6252449946618395E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.92994859946152197</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -616,8 +712,23 @@
       <c r="G6" s="5">
         <v>7.2740807504380722E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5">
+        <v>6.2892501719840066E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.80541383260395016</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.47903758092566617</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.87297339902298754</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -639,8 +750,23 @@
       <c r="G7" s="5">
         <v>0.22181529972497341</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <v>0.15459332558731581</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.900267467314398</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.85426595710767628</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.22851738644749139</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>3</v>
@@ -660,8 +786,23 @@
       <c r="G8" s="5">
         <v>0.68947474132486852</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5">
+        <v>0.19485736821006691</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.1079038816181235</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.87471135867692174</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.69741664349612176</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>4</v>
@@ -681,8 +822,23 @@
       <c r="G9" s="5">
         <v>0.86814780146513637</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <v>0.99639200749319334</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.77150324423571215</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.92989063174599162</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.86959795924498817</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>5</v>
@@ -702,8 +858,23 @@
       <c r="G10" s="5">
         <v>0.12727626531502739</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5">
+        <v>0.14364962900468981</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.13028837546417529</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.62244182050633379</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.20644958851198969</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -723,8 +894,23 @@
       <c r="G11" s="5">
         <v>0.18729130216800269</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <v>0.65719089995785618</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.2354567405079406</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.6985836570750108</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.54742913214721645</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -746,8 +932,23 @@
       <c r="G12" s="5">
         <v>0.11289258497248909</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
+        <v>0.48157071833532378</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.16669617266253611</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.70444695691975801</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.23450964104973329</v>
+      </c>
+      <c r="L12" s="5">
+        <v>8.139270927935191E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>3</v>
@@ -767,8 +968,23 @@
       <c r="G13" s="5">
         <v>0.13806644258141951</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
+        <v>0.2451154428420752</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.85242772871327688</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.44023752394597948</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.31330599778365231</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.92777027572339965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>4</v>
@@ -788,8 +1004,23 @@
       <c r="G14" s="5">
         <v>3.0755273283921799E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="5">
+        <v>0.45035197428865842</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.13456000761635439</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.1048998455548502</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.8943023104937669E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.30410482773072411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>5</v>
@@ -809,8 +1040,23 @@
       <c r="G15" s="5">
         <v>0.19223057115124931</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
+        <v>0.27917837965976422</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.45160542387219088</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.35781042932981738</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1.9380337192093311E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.13660227779514089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -830,8 +1076,23 @@
       <c r="G16" s="5">
         <v>0.17570693214160649</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5">
+        <v>0.79484796045125172</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.78125521906388129</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.23328412312719321</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.1141593268574079</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.35342909246945042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -853,8 +1114,23 @@
       <c r="G17" s="5">
         <v>0.69585129334598017</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <v>0.86747552141106565</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.11939017976457</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.85369074579925286</v>
+      </c>
+      <c r="K17" s="5">
+        <v>9.0466194163853375E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.48635005784031538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>3</v>
@@ -874,8 +1150,23 @@
       <c r="G18" s="5">
         <v>0.37279523718885171</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <v>0.3588208790241193</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.47585847029765832</v>
+      </c>
+      <c r="J18" s="5">
+        <v>7.5635013038066745E-4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.19710506424775431</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.17516068843096691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>4</v>
@@ -895,8 +1186,23 @@
       <c r="G19" s="5">
         <v>0.57787423019588569</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <v>0.28455085624561388</v>
+      </c>
+      <c r="I19" s="5">
+        <v>9.5874839942522216E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.30198239261369458</v>
+      </c>
+      <c r="K19" s="5">
+        <v>8.2233403582286257E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.91205598447483283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>5</v>
@@ -916,8 +1222,23 @@
       <c r="G20" s="5">
         <v>0.57924357753131361</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5">
+        <v>0.35700691349989461</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.90675060948327857</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.37749749756425238</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.16068533644314081</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -937,8 +1258,23 @@
       <c r="G21" s="5">
         <v>0.48011673182350778</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <v>0.40524536126397698</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.55908565147267075</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4.1559108020235769E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2.1323022439133869E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.17033757221511939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -960,8 +1296,23 @@
       <c r="G22" s="5">
         <v>0.34128054334693753</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5">
+        <v>0.89361742196951499</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.50074430779426726</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.95657685592631381</v>
+      </c>
+      <c r="K22" s="5">
+        <v>9.232732325107107E-2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.2291158014360897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>3</v>
@@ -981,8 +1332,23 @@
       <c r="G23" s="5">
         <v>0.25308349369269528</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5">
+        <v>0.90796880529504576</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.18078885854197191</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.40381446325780712</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.8940856401945485</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.88469436272600843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
         <v>4</v>
@@ -1002,8 +1368,23 @@
       <c r="G24" s="5">
         <v>1.3015003380911769E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="5">
+        <v>8.2358873785257414E-2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1.016394798291786E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.86746284506071736</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3.610787163067819E-2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.61619549702010556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
         <v>5</v>
@@ -1023,8 +1404,23 @@
       <c r="G25" s="5">
         <v>0.63625277436458705</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5">
+        <v>0.1172385262920585</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.85209086973376325</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.23976931846195321</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.16999035214485811</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1044,8 +1440,23 @@
       <c r="G26" s="5">
         <v>1.0483648810657E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5">
+        <v>0.81211880695134764</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2.2455838930421908E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.3695093947843282</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5.456496499022867E-2</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.28233542286354402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2014</v>
       </c>
@@ -1067,8 +1478,23 @@
       <c r="G27" s="5">
         <v>0.75712671485060445</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="5">
+        <v>0.25677340106935798</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.76503049632887032</v>
+      </c>
+      <c r="J27" s="5">
+        <v>9.5076375878800246E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.76568596814099776</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.25066256173511331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>3</v>
@@ -1088,8 +1514,23 @@
       <c r="G28" s="5">
         <v>8.1493389012767148E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="5">
+        <v>0.2269089780657669</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.79840959768154995</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.4465632065238665</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.2373741138737411</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.2941461937827512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>4</v>
@@ -1109,8 +1550,23 @@
       <c r="G29" s="5">
         <v>0.11349449457454509</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="5">
+        <v>0.44034293888249421</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.82813381805335218</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.14814031367861319</v>
+      </c>
+      <c r="K29" s="5">
+        <v>9.4823527054843648E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1">
         <v>5</v>
@@ -1130,8 +1586,23 @@
       <c r="G30" s="5">
         <v>8.9020916527731142E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="5">
+        <v>6.3420798975942327E-2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.693907120022494</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.52044578663123486</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.90667779863216924</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -1151,8 +1622,23 @@
       <c r="G31" s="5">
         <v>1.481239070372053E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5">
+        <v>0.31028941739584592</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.72497853471632268</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2.1833056570435438E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.21018150100625529</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.1197884028329073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
@@ -1174,8 +1660,23 @@
       <c r="G32" s="5">
         <v>0.64365177743516133</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="5">
+        <v>0.95573351187885369</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.59585294414307621</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.95876351624005518</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.95495568575568091</v>
+      </c>
+      <c r="L32" s="5">
+        <v>7.2146134604733972E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>3</v>
@@ -1195,8 +1696,23 @@
       <c r="G33" s="5">
         <v>0.44241720707024751</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="5">
+        <v>0.41080669519281748</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.92879075370348729</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.8674909118375147</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.16920947689361029</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.9855971487467069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
         <v>4</v>
@@ -1216,8 +1732,23 @@
       <c r="G34" s="5">
         <v>3.8744208090302427E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="5">
+        <v>0.12544582764446169</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.1016923257125497</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.82758470053386035</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.61869573830881541</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.97113499650028201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>5</v>
@@ -1237,8 +1768,23 @@
       <c r="G35" s="5">
         <v>7.5713873336116233E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5">
+        <v>0.19681150732360361</v>
+      </c>
+      <c r="I35" s="5">
+        <v>6.7237227788972564E-2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>7.3785364522088726E-2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.56195557201376967</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.59281960560287672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -1258,8 +1804,23 @@
       <c r="G36" s="5">
         <v>6.2271046274497532E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5">
+        <v>0.1172186439156437</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.33614928793653348</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.57872943582526548</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.32767349479839808</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.30958834839140847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2016</v>
       </c>
@@ -1281,8 +1842,23 @@
       <c r="G37" s="5">
         <v>6.8966846859747966E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5">
+        <v>0.53134095416770077</v>
+      </c>
+      <c r="I37" s="5">
+        <v>7.6086973453246776E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.39112688543646817</v>
+      </c>
+      <c r="K37" s="5">
+        <v>7.8098872606127134E-3</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.46858903861154172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1">
         <v>3</v>
@@ -1302,8 +1878,23 @@
       <c r="G38" s="5">
         <v>0.1102447518119649</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="5">
+        <v>0.85163419587748312</v>
+      </c>
+      <c r="I38" s="5">
+        <v>5.276740664082169E-2</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.63621394105599594</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.65379820872680083</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.50443845617979965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
         <v>4</v>
@@ -1323,8 +1914,23 @@
       <c r="G39" s="5">
         <v>0.44558887019236942</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5">
+        <v>0.72340275091853667</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.38226173742370539</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.90845743096167575</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.88596044887870107</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.65783370254355722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1">
         <v>5</v>
@@ -1344,8 +1950,23 @@
       <c r="G40" s="5">
         <v>0.91540519679528964</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="5">
+        <v>0.78261393378818378</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.61325682614070809</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.728812206596259</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.46586202744350391</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>5</v>
@@ -1365,8 +1986,23 @@
       <c r="G41" s="5">
         <v>8.1705450561308401E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="5">
+        <v>0.81444211720696003</v>
+      </c>
+      <c r="I41" s="5">
+        <v>4.6826820398099711E-2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.70667233223482584</v>
+      </c>
+      <c r="K41" s="5">
+        <v>3.7892700339138503E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.28006644836492622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2017</v>
       </c>
@@ -1388,8 +2024,23 @@
       <c r="G42" s="5">
         <v>0.23920956105242211</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="5">
+        <v>4.263414277437394E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.39307003886354958</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.26505907295655229</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.63454662446279575</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.39841233208880272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <v>3</v>
@@ -1409,8 +2060,23 @@
       <c r="G43" s="5">
         <v>0.31993157337359951</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="5">
+        <v>0.48122033143750542</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.73007758117745847</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.47341311925720059</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.96486407655078377</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.44382029656324562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
         <v>4</v>
@@ -1430,8 +2096,23 @@
       <c r="G44" s="5">
         <v>0.15661430506163129</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="5">
+        <v>0.7043485082482559</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.57732800079954494</v>
+      </c>
+      <c r="J44" s="5">
+        <v>4.586133268500836E-2</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.96523511932206274</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
         <v>5</v>
@@ -1451,8 +2132,23 @@
       <c r="G45" s="5">
         <v>0.1904373480384032</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="5">
+        <v>0.84138360844767091</v>
+      </c>
+      <c r="I45" s="5">
+        <v>5.2200700464431149E-2</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.39901538482889198</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.80628573301358997</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -1471,6 +2167,21 @@
       </c>
       <c r="G46" s="5">
         <v>2.0550529179158561E-2</v>
+      </c>
+      <c r="H46" s="5">
+        <v>8.3497767782426902E-2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.60528216981776684</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2.5837819669194632E-2</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.69306906681929803</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.25431523989786847</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +2197,24 @@
     <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:L46">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results/output_favorite_first_True_formatted.xlsx
+++ b/results/output_favorite_first_True_formatted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DF192-5494-4DE4-8CEF-38D2F1FA9EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF8616-72D8-49A9-A10A-ED0808744D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Australian Open</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>All sets</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Set number</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -95,25 +101,327 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,206 +806,207 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="12" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="10">
         <v>0.6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="10">
         <v>0.7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="10">
         <v>0.8</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="10">
         <v>0.9</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="20">
         <v>2009</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="21">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="22">
         <v>0.37707693808859449</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="23">
         <v>0.55118106312928905</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="23">
         <v>0.27811883987907587</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="23">
         <v>0.84727189453318297</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="23">
         <v>0.43875174005868439</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="23">
         <v>6.3822902780311885E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="23">
         <v>0.76423334994776893</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="23">
         <v>0.87714285193077257</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="23">
         <v>0.26417449276023308</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>0.98069537340370339</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>0.62893335892318281</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>0.30201310673656212</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>0.70253282001472517</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>0.56062020238586885</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>0.73789905748175233</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>9.0574701618287554E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>0.92736674887990334</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="1">
         <v>0.6435053599235474</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <v>0.1050297772392612</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>0.20008665605126111</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>4.0016421192354601E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>0.83721483071002112</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>1.297429020683416E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>4.9039634820702283E-4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="1">
         <v>0.89298832156682273</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>0.63611030873966179</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="1">
         <v>0.22776952897795549</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>0.80821331098292482</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>0.26973501090345797</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>0.1558015422024204</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>0.50898513637230325</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>8.3697462588145477E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>0.56658981687302434</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>6.0081758789084727E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>7.6252449946618395E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="1">
         <v>0.92994859946152197</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="15">
         <v>0.17251629001293001</v>
       </c>
       <c r="D6" s="5">
@@ -724,189 +1033,189 @@
       <c r="K6" s="5">
         <v>0.87297339902298754</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>2010</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="13">
         <v>0.1591838346151766</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>0.64909450923410617</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>0.40934081832100189</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>0.49374653161453308</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>0.22181529972497341</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>0.15459332558731581</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
         <v>0.900267467314398</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <v>0.85426595710767628</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="8">
         <v>0.22851738644749139</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>0.89341593971625244</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>0.69640053574409166</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>0.62184451198867685</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>0.55335325280781578</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>0.68947474132486852</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>0.19485736821006691</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>0.1079038816181235</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>0.87471135867692174</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <v>0.69741664349612176</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <v>0.8228683591075332</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>0.52482075231400471</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>0.62451898041995646</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>0.47410202092883202</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>0.86814780146513637</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="1">
         <v>0.99639200749319334</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <v>0.77150324423571215</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1">
         <v>0.92989063174599162</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="1">
         <v>0.86959795924498817</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1">
+      <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>0.4956574949619359</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>0.32886731412679537</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>1.3978384585098921E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>0.42679037583816098</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>0.12727626531502739</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="1">
         <v>0.14364962900468981</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="1">
         <v>0.13028837546417529</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1">
         <v>0.62244182050633379</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="1">
         <v>0.20644958851198969</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>0.21848951673096059</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>0.64105222100681136</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>0.22136218934211321</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>0.50630769433043077</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>0.18729130216800269</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>0.65719089995785618</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="1">
         <v>0.2354567405079406</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1">
         <v>0.6985836570750108</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="1">
         <v>0.54742913214721645</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -914,181 +1223,181 @@
       <c r="A12" s="2">
         <v>2011</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="14">
         <v>0.67738130698606591</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>0.54026603392618777</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>0.2368367823553649</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>0.34845888882563852</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>0.11289258497248909</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>0.48157071833532378</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="1">
         <v>0.16669617266253611</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="1">
         <v>0.70444695691975801</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="1">
         <v>0.23450964104973329</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>8.139270927935191E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="1">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="14">
         <v>0.75167428310669715</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>0.3042742579121418</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <v>0.26436153999609058</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>0.62110538967841267</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>0.13806644258141951</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>0.2451154428420752</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="1">
         <v>0.85242772871327688</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1">
         <v>0.44023752394597948</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="1">
         <v>0.31330599778365231</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>0.92777027572339965</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1">
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>0.1043869319590478</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>0.26655267004204219</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>0.81007935684082621</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="1">
         <v>0.1607469552044325</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>3.0755273283921799E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="1">
         <v>0.45035197428865842</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>0.13456000761635439</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="1">
         <v>0.1048998455548502</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="1">
         <v>1.8943023104937669E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>0.30410482773072411</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="1">
+      <c r="B15" s="17">
         <v>5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="14">
         <v>0.22254398524213709</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>0.1836715863032676</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
         <v>0.41213789941923862</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>0.35948069200832511</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>0.19223057115124931</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>0.27917837965976422</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="1">
         <v>0.45160542387219088</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>0.35781042932981738</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="1">
         <v>1.9380337192093311E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>0.13660227779514089</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="14">
         <v>0.28342222963746838</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>0.23994789653677939</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <v>0.85727599868984217</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="1">
         <v>0.49117524718993161</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>0.17570693214160649</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="1">
         <v>0.79484796045125172</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="1">
         <v>0.78125521906388129</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1">
         <v>0.23328412312719321</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="1">
         <v>0.1141593268574079</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>0.35342909246945042</v>
       </c>
     </row>
@@ -1096,181 +1405,181 @@
       <c r="A17" s="2">
         <v>2012</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="14">
         <v>0.66445804542194309</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>0.94435330347771296</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="1">
         <v>0.95412455009307784</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>0.2178507923474079</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>0.69585129334598017</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="1">
         <v>0.86747552141106565</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>0.11939017976457</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>0.85369074579925286</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="1">
         <v>9.0466194163853375E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>0.48635005784031538</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1">
+      <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="14">
         <v>0.30594853085894252</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>0.62931352336101964</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="1">
         <v>0.32042969227415902</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="1">
         <v>0.47635561982653568</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>0.37279523718885171</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="1">
         <v>0.3588208790241193</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="1">
         <v>0.47585847029765832</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="1">
         <v>7.5635013038066745E-4</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="1">
         <v>0.19710506424775431</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>0.17516068843096691</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="14">
         <v>0.64707228089741031</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>0.58533005117551706</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="1">
         <v>0.9485043221697218</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="1">
         <v>0.87946770779977834</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>0.57787423019588569</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="1">
         <v>0.28455085624561388</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="1">
         <v>9.5874839942522216E-2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1">
         <v>0.30198239261369458</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="1">
         <v>8.2233403582286257E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <v>0.91205598447483283</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1">
+      <c r="B20" s="17">
         <v>5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="14">
         <v>0.48810260477735362</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>0.50101084342115199</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="1">
         <v>0.50958049243421866</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="1">
         <v>0.38542491830169212</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>0.57924357753131361</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="1">
         <v>0.35700691349989461</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="1">
         <v>0.90675060948327857</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="1">
         <v>0.37749749756425238</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="1">
         <v>0.16068533644314081</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="14">
         <v>0.19785096406709851</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>0.44281670622655872</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="1">
         <v>0.47074078064115299</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="1">
         <v>0.1833565713824141</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>0.48011673182350778</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="1">
         <v>0.40524536126397698</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>0.55908565147267075</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="1">
         <v>4.1559108020235769E-2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="1">
         <v>2.1323022439133869E-2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>0.17033757221511939</v>
       </c>
     </row>
@@ -1278,181 +1587,181 @@
       <c r="A22" s="2">
         <v>2013</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="14">
         <v>0.27746719554999139</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>0.41038402232643462</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="1">
         <v>0.44784076172214049</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="1">
         <v>0.44963944533809808</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>0.34128054334693753</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="1">
         <v>0.89361742196951499</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="1">
         <v>0.50074430779426726</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="1">
         <v>0.95657685592631381</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="1">
         <v>9.232732325107107E-2</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>0.2291158014360897</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1">
+      <c r="B23" s="17">
         <v>3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="14">
         <v>0.24444496497419749</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>0.61201292407698649</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="1">
         <v>0.51121327327687105</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="1">
         <v>0.98680921124116294</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>0.25308349369269528</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="1">
         <v>0.90796880529504576</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="1">
         <v>0.18078885854197191</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="1">
         <v>0.40381446325780712</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="1">
         <v>0.8940856401945485</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>0.88469436272600843</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1">
+      <c r="B24" s="17">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="14">
         <v>0.22127180863367649</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>4.8435397464020147E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="1">
         <v>2.4868382083028662E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <v>0.33667857107455301</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>1.3015003380911769E-3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="1">
         <v>8.2358873785257414E-2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="1">
         <v>1.016394798291786E-2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="1">
         <v>0.86746284506071736</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="1">
         <v>3.610787163067819E-2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>0.61619549702010556</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1">
+      <c r="B25" s="17">
         <v>5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="14">
         <v>0.190732797998558</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>0.14156977912165369</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="1">
         <v>0.49539347542290357</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="1">
         <v>0.79194559130251596</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <v>0.63625277436458705</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="1">
         <v>0.1172385262920585</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="1">
         <v>0.85209086973376325</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="1">
         <v>0.23976931846195321</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="1">
         <v>0.16999035214485811</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>0.12790455547933591</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <v>4.2581461318614178E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="1">
         <v>9.1832795070808659E-2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="1">
         <v>0.90549033302934467</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <v>1.0483648810657E-2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="1">
         <v>0.81211880695134764</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="1">
         <v>2.2455838930421908E-2</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="1">
         <v>0.3695093947843282</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="1">
         <v>5.456496499022867E-2</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="3">
         <v>0.28233542286354402</v>
       </c>
     </row>
@@ -1460,181 +1769,181 @@
       <c r="A27" s="2">
         <v>2014</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="17">
         <v>2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="14">
         <v>0.8831405161162259</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <v>0.59250347116976232</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="1">
         <v>0.66914306990658023</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="1">
         <v>7.480559003992604E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>0.75712671485060445</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="1">
         <v>0.25677340106935798</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="1">
         <v>0.76503049632887032</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="1">
         <v>9.5076375878800246E-2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="1">
         <v>0.76568596814099776</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <v>0.25066256173511331</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1">
+      <c r="B28" s="17">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="14">
         <v>8.4252207760154629E-2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="1">
         <v>0.22303845635110811</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="1">
         <v>0.56455274890932949</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="1">
         <v>0.27172055142324808</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>8.1493389012767148E-2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="1">
         <v>0.2269089780657669</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="1">
         <v>0.79840959768154995</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="1">
         <v>0.4465632065238665</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="1">
         <v>0.2373741138737411</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>0.2941461937827512</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1">
+      <c r="B29" s="17">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="14">
         <v>0.14996453932477219</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="1">
         <v>0.101447170086197</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="1">
         <v>0.73806042278326167</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="1">
         <v>0.77757121877058766</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>0.11349449457454509</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="1">
         <v>0.44034293888249421</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="1">
         <v>0.82813381805335218</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="1">
         <v>0.14814031367861319</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="1">
         <v>9.4823527054843648E-2</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1">
+      <c r="B30" s="17">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="14">
         <v>2.504327011918139E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="1">
         <v>0.31597499361493631</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="1">
         <v>0.42782699617072639</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="1">
         <v>0.45381012687300798</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>8.9020916527731142E-2</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="1">
         <v>6.3420798975942327E-2</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="1">
         <v>0.693907120022494</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="1">
         <v>0.52044578663123486</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="1">
         <v>0.90667779863216924</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="14">
         <v>2.4814107430780389E-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="1">
         <v>0.15635532058749521</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="1">
         <v>0.87193920306635508</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="1">
         <v>0.16336330863306389</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>1.481239070372053E-2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="1">
         <v>0.31028941739584592</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="1">
         <v>0.72497853471632268</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="1">
         <v>2.1833056570435438E-2</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="1">
         <v>0.21018150100625529</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <v>0.1197884028329073</v>
       </c>
     </row>
@@ -1642,181 +1951,181 @@
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="17">
         <v>2</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="14">
         <v>0.60156785891670495</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="1">
         <v>0.93588891575342192</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="1">
         <v>0.2679220968297924</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="1">
         <v>0.1943599725315355</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>0.64365177743516133</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="1">
         <v>0.95573351187885369</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="1">
         <v>0.59585294414307621</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="1">
         <v>0.95876351624005518</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="1">
         <v>0.95495568575568091</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <v>7.2146134604733972E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="1">
+      <c r="B33" s="17">
         <v>3</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="14">
         <v>0.56327153069004243</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="1">
         <v>2.1357681884254461E-2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="1">
         <v>0.69704657143578985</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="1">
         <v>0.34069505905828867</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>0.44241720707024751</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="1">
         <v>0.41080669519281748</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="1">
         <v>0.92879075370348729</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="1">
         <v>0.8674909118375147</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="1">
         <v>0.16920947689361029</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="3">
         <v>0.9855971487467069</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1">
+      <c r="B34" s="17">
         <v>4</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="14">
         <v>0.1009551865840566</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="1">
         <v>0.56009177570395141</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="1">
         <v>0.60656436396818103</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="1">
         <v>0.1912029681213587</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="1">
         <v>3.8744208090302427E-2</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="1">
         <v>0.12544582764446169</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="1">
         <v>0.1016923257125497</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="1">
         <v>0.82758470053386035</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="1">
         <v>0.61869573830881541</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>0.97113499650028201</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="1">
+      <c r="B35" s="17">
         <v>5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="14">
         <v>0.24001084523327901</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="1">
         <v>0.31130424335842122</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="1">
         <v>0.35174662496925652</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="1">
         <v>3.5464481273134167E-2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="1">
         <v>7.5713873336116233E-3</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="1">
         <v>0.19681150732360361</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="1">
         <v>6.7237227788972564E-2</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="1">
         <v>7.3785364522088726E-2</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="1">
         <v>0.56195557201376967</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <v>0.59281960560287672</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="14">
         <v>0.2732946427672891</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="1">
         <v>6.3327279116480728E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="1">
         <v>0.34373812863213421</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="1">
         <v>0.92632734619429535</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>6.2271046274497532E-2</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="1">
         <v>0.1172186439156437</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="1">
         <v>0.33614928793653348</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="1">
         <v>0.57872943582526548</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="1">
         <v>0.32767349479839808</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <v>0.30958834839140847</v>
       </c>
     </row>
@@ -1824,181 +2133,181 @@
       <c r="A37" s="2">
         <v>2016</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="17">
         <v>2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="14">
         <v>6.1523860155277221E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="1">
         <v>2.338461027738337E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="1">
         <v>0.58604091203944364</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="1">
         <v>0.96509592766697327</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>6.8966846859747966E-2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="1">
         <v>0.53134095416770077</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="1">
         <v>7.6086973453246776E-2</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="1">
         <v>0.39112688543646817</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="1">
         <v>7.8098872606127134E-3</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <v>0.46858903861154172</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1">
+      <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="14">
         <v>0.67727047557009556</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="1">
         <v>0.90088657943472072</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="1">
         <v>0.15446477019990729</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="1">
         <v>0.14550396811759231</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>0.1102447518119649</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="1">
         <v>0.85163419587748312</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="1">
         <v>5.276740664082169E-2</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="1">
         <v>0.63621394105599594</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="1">
         <v>0.65379820872680083</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <v>0.50443845617979965</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="1">
+      <c r="B39" s="17">
         <v>4</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="14">
         <v>0.2277255611989473</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="1">
         <v>0.97232593795377864</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="1">
         <v>0.49827017850424921</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="1">
         <v>0.39000037851998381</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>0.44558887019236942</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="1">
         <v>0.72340275091853667</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="1">
         <v>0.38226173742370539</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="1">
         <v>0.90845743096167575</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="1">
         <v>0.88596044887870107</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <v>0.65783370254355722</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1">
+      <c r="B40" s="17">
         <v>5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="14">
         <v>0.52625873209065954</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="1">
         <v>0.38064231804476201</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="1">
         <v>0.54152247530271769</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="1">
         <v>0.46512481805105971</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="1">
         <v>0.91540519679528964</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="1">
         <v>0.78261393378818378</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="1">
         <v>0.61325682614070809</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="1">
         <v>0.728812206596259</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="1">
         <v>0.46586202744350391</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="14">
         <v>0.53199825603919026</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="1">
         <v>0.12377558028934769</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="1">
         <v>0.51138912736944819</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="1">
         <v>0.48451935487376052</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="1">
         <v>8.1705450561308401E-2</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="1">
         <v>0.81444211720696003</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="1">
         <v>4.6826820398099711E-2</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="1">
         <v>0.70667233223482584</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="1">
         <v>3.7892700339138503E-2</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <v>0.28006644836492622</v>
       </c>
     </row>
@@ -2006,154 +2315,154 @@
       <c r="A42" s="2">
         <v>2017</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="17">
         <v>2</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="14">
         <v>0.91075228765139471</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="1">
         <v>0.49104887108348638</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="1">
         <v>0.35441065691845491</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="1">
         <v>0.53003144977359162</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="1">
         <v>0.23920956105242211</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="1">
         <v>4.263414277437394E-2</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="1">
         <v>0.39307003886354958</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="1">
         <v>0.26505907295655229</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="1">
         <v>0.63454662446279575</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="3">
         <v>0.39841233208880272</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1">
+      <c r="B43" s="17">
         <v>3</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="14">
         <v>0.76525066982076462</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="1">
         <v>0.2331385723195942</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="1">
         <v>0.40399900471645389</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="1">
         <v>0.16485249918192579</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="1">
         <v>0.31993157337359951</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="1">
         <v>0.48122033143750542</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="1">
         <v>0.73007758117745847</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="1">
         <v>0.47341311925720059</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="1">
         <v>0.96486407655078377</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <v>0.44382029656324562</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1">
+      <c r="B44" s="17">
         <v>4</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="14">
         <v>0.79325030882830228</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="1">
         <v>0.1758878642999808</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="1">
         <v>0.45556244318016459</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="1">
         <v>0.6504140102960263</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="1">
         <v>0.15661430506163129</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="1">
         <v>0.7043485082482559</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="1">
         <v>0.57732800079954494</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="1">
         <v>4.586133268500836E-2</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="1">
         <v>0.96523511932206274</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="1">
+      <c r="B45" s="17">
         <v>5</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="14">
         <v>0.25809506208116911</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="1">
         <v>0.2157129972073355</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="1">
         <v>0.17091939766525091</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="1">
         <v>5.9852567639115062E-2</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="1">
         <v>0.1904373480384032</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="1">
         <v>0.84138360844767091</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="1">
         <v>5.2200700464431149E-2</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="1">
         <v>0.39901538482889198</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="1">
         <v>0.80628573301358997</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="15">
         <v>0.49424068086915879</v>
       </c>
       <c r="D46" s="5">
@@ -2180,7 +2489,7 @@
       <c r="K46" s="5">
         <v>0.69306906681929803</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="6">
         <v>0.25431523989786847</v>
       </c>
     </row>

--- a/results/output_favorite_first_True_formatted.xlsx
+++ b/results/output_favorite_first_True_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF8616-72D8-49A9-A10A-ED0808744D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA07F95-9835-4343-8B66-5B9AD24472C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,18 +375,9 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,20 +404,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -806,7 +848,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,87 +860,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="7">
         <v>0.6</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="7">
         <v>0.7</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="7">
         <v>0.8</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="7">
         <v>0.9</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>2009</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="23">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>0.37707693808859449</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="19">
         <v>0.55118106312928905</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="19">
         <v>0.27811883987907587</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="19">
         <v>0.84727189453318297</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="19">
         <v>0.43875174005868439</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="19">
         <v>6.3822902780311885E-2</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="19">
         <v>0.76423334994776893</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="19">
         <v>0.87714285193077257</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="19">
         <v>0.26417449276023308</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="17">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>0.98069537340370339</v>
       </c>
       <c r="D3" s="1">
@@ -925,16 +967,16 @@
       <c r="K3" s="1">
         <v>0.6435053599235474</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>0.1050297772392612</v>
       </c>
       <c r="D4" s="1">
@@ -961,16 +1003,16 @@
       <c r="K4" s="1">
         <v>0.22776952897795549</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="17">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.80821331098292482</v>
       </c>
       <c r="D5" s="1">
@@ -997,90 +1039,90 @@
       <c r="K5" s="1">
         <v>0.92994859946152197</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.17251629001293001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.79617505667986888</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.13543315191841659</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.65157741392840718</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>7.2740807504380722E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>6.2892501719840066E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.80541383260395016</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0.47903758092566617</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>0.87297339902298754</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="24">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.1591838346151766</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>0.64909450923410617</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0.40934081832100189</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.49374653161453308</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.22181529972497341</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>0.15459332558731581</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>0.900267467314398</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>0.85426595710767628</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>0.22851738644749139</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="17">
+      <c r="A8" s="21"/>
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>0.89341593971625244</v>
       </c>
       <c r="D8" s="1">
@@ -1107,16 +1149,16 @@
       <c r="K8" s="1">
         <v>0.69741664349612176</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17">
+      <c r="A9" s="21"/>
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>0.8228683591075332</v>
       </c>
       <c r="D9" s="1">
@@ -1143,16 +1185,16 @@
       <c r="K9" s="1">
         <v>0.86959795924498817</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="17">
+      <c r="A10" s="21"/>
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>0.4956574949619359</v>
       </c>
       <c r="D10" s="1">
@@ -1179,16 +1221,16 @@
       <c r="K10" s="1">
         <v>0.20644958851198969</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>0.21848951673096059</v>
       </c>
       <c r="D11" s="1">
@@ -1215,18 +1257,18 @@
       <c r="K11" s="1">
         <v>0.54742913214721645</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="21">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>0.67738130698606591</v>
       </c>
       <c r="D12" s="1">
@@ -1253,16 +1295,16 @@
       <c r="K12" s="1">
         <v>0.23450964104973329</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>8.139270927935191E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="17">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>0.75167428310669715</v>
       </c>
       <c r="D13" s="1">
@@ -1289,16 +1331,16 @@
       <c r="K13" s="1">
         <v>0.31330599778365231</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>0.92777027572339965</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="17">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>0.1043869319590478</v>
       </c>
       <c r="D14" s="1">
@@ -1325,16 +1367,16 @@
       <c r="K14" s="1">
         <v>1.8943023104937669E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>0.30410482773072411</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="17">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14">
         <v>5</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>0.22254398524213709</v>
       </c>
       <c r="D15" s="1">
@@ -1361,16 +1403,16 @@
       <c r="K15" s="1">
         <v>1.9380337192093311E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.13660227779514089</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>0.28342222963746838</v>
       </c>
       <c r="D16" s="1">
@@ -1397,18 +1439,18 @@
       <c r="K16" s="1">
         <v>0.1141593268574079</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>0.35342909246945042</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="21">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>0.66445804542194309</v>
       </c>
       <c r="D17" s="1">
@@ -1435,16 +1477,16 @@
       <c r="K17" s="1">
         <v>9.0466194163853375E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>0.48635005784031538</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="17">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>0.30594853085894252</v>
       </c>
       <c r="D18" s="1">
@@ -1471,16 +1513,16 @@
       <c r="K18" s="1">
         <v>0.19710506424775431</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>0.17516068843096691</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="17">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>0.64707228089741031</v>
       </c>
       <c r="D19" s="1">
@@ -1507,16 +1549,16 @@
       <c r="K19" s="1">
         <v>8.2233403582286257E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>0.91205598447483283</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="17">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>0.48810260477735362</v>
       </c>
       <c r="D20" s="1">
@@ -1543,16 +1585,16 @@
       <c r="K20" s="1">
         <v>0.16068533644314081</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>0.19785096406709851</v>
       </c>
       <c r="D21" s="1">
@@ -1579,18 +1621,18 @@
       <c r="K21" s="1">
         <v>2.1323022439133869E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>0.17033757221511939</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="21">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="14">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>0.27746719554999139</v>
       </c>
       <c r="D22" s="1">
@@ -1617,16 +1659,16 @@
       <c r="K22" s="1">
         <v>9.232732325107107E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>0.2291158014360897</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="17">
+      <c r="A23" s="21"/>
+      <c r="B23" s="14">
         <v>3</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>0.24444496497419749</v>
       </c>
       <c r="D23" s="1">
@@ -1653,16 +1695,16 @@
       <c r="K23" s="1">
         <v>0.8940856401945485</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>0.88469436272600843</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="17">
+      <c r="A24" s="21"/>
+      <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>0.22127180863367649</v>
       </c>
       <c r="D24" s="1">
@@ -1689,16 +1731,16 @@
       <c r="K24" s="1">
         <v>3.610787163067819E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>0.61619549702010556</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="17">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14">
         <v>5</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>0.190732797998558</v>
       </c>
       <c r="D25" s="1">
@@ -1725,16 +1767,16 @@
       <c r="K25" s="1">
         <v>0.16999035214485811</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>0.12790455547933591</v>
       </c>
       <c r="D26" s="1">
@@ -1761,18 +1803,18 @@
       <c r="K26" s="1">
         <v>5.456496499022867E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>0.28233542286354402</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="21">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>0.8831405161162259</v>
       </c>
       <c r="D27" s="1">
@@ -1799,16 +1841,16 @@
       <c r="K27" s="1">
         <v>0.76568596814099776</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>0.25066256173511331</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="17">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>8.4252207760154629E-2</v>
       </c>
       <c r="D28" s="1">
@@ -1835,16 +1877,16 @@
       <c r="K28" s="1">
         <v>0.2373741138737411</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>0.2941461937827512</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="17">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14">
         <v>4</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>0.14996453932477219</v>
       </c>
       <c r="D29" s="1">
@@ -1871,16 +1913,16 @@
       <c r="K29" s="1">
         <v>9.4823527054843648E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="17">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>2.504327011918139E-2</v>
       </c>
       <c r="D30" s="1">
@@ -1907,16 +1949,16 @@
       <c r="K30" s="1">
         <v>0.90667779863216924</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>2.4814107430780389E-2</v>
       </c>
       <c r="D31" s="1">
@@ -1943,18 +1985,18 @@
       <c r="K31" s="1">
         <v>0.21018150100625529</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>0.1197884028329073</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="A32" s="21">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="14">
         <v>2</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>0.60156785891670495</v>
       </c>
       <c r="D32" s="1">
@@ -1981,16 +2023,16 @@
       <c r="K32" s="1">
         <v>0.95495568575568091</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>7.2146134604733972E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="17">
+      <c r="A33" s="21"/>
+      <c r="B33" s="14">
         <v>3</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <v>0.56327153069004243</v>
       </c>
       <c r="D33" s="1">
@@ -2017,16 +2059,16 @@
       <c r="K33" s="1">
         <v>0.16920947689361029</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>0.9855971487467069</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="17">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <v>0.1009551865840566</v>
       </c>
       <c r="D34" s="1">
@@ -2053,16 +2095,16 @@
       <c r="K34" s="1">
         <v>0.61869573830881541</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>0.97113499650028201</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="17">
+      <c r="A35" s="21"/>
+      <c r="B35" s="14">
         <v>5</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <v>0.24001084523327901</v>
       </c>
       <c r="D35" s="1">
@@ -2089,16 +2131,16 @@
       <c r="K35" s="1">
         <v>0.56195557201376967</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>0.59281960560287672</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="17" t="s">
+    <row r="36" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>0.2732946427672891</v>
       </c>
       <c r="D36" s="1">
@@ -2125,18 +2167,18 @@
       <c r="K36" s="1">
         <v>0.32767349479839808</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>0.30958834839140847</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B37" s="17">
+      <c r="A37" s="21">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="14">
         <v>2</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>6.1523860155277221E-2</v>
       </c>
       <c r="D37" s="1">
@@ -2163,16 +2205,16 @@
       <c r="K37" s="1">
         <v>7.8098872606127134E-3</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>0.46858903861154172</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="17">
+      <c r="A38" s="21"/>
+      <c r="B38" s="14">
         <v>3</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>0.67727047557009556</v>
       </c>
       <c r="D38" s="1">
@@ -2199,16 +2241,16 @@
       <c r="K38" s="1">
         <v>0.65379820872680083</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>0.50443845617979965</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="17">
+      <c r="A39" s="21"/>
+      <c r="B39" s="14">
         <v>4</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>0.2277255611989473</v>
       </c>
       <c r="D39" s="1">
@@ -2235,16 +2277,16 @@
       <c r="K39" s="1">
         <v>0.88596044887870107</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>0.65783370254355722</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="17">
+      <c r="A40" s="21"/>
+      <c r="B40" s="14">
         <v>5</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>0.52625873209065954</v>
       </c>
       <c r="D40" s="1">
@@ -2271,16 +2313,16 @@
       <c r="K40" s="1">
         <v>0.46586202744350391</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <v>0.53199825603919026</v>
       </c>
       <c r="D41" s="1">
@@ -2307,18 +2349,18 @@
       <c r="K41" s="1">
         <v>3.7892700339138503E-2</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>0.28006644836492622</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="17">
+      <c r="A42" s="21">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>0.91075228765139471</v>
       </c>
       <c r="D42" s="1">
@@ -2345,16 +2387,16 @@
       <c r="K42" s="1">
         <v>0.63454662446279575</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>0.39841233208880272</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="17">
+      <c r="A43" s="21"/>
+      <c r="B43" s="14">
         <v>3</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="11">
         <v>0.76525066982076462</v>
       </c>
       <c r="D43" s="1">
@@ -2381,16 +2423,16 @@
       <c r="K43" s="1">
         <v>0.96486407655078377</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>0.44382029656324562</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="17">
+      <c r="A44" s="21"/>
+      <c r="B44" s="14">
         <v>4</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="11">
         <v>0.79325030882830228</v>
       </c>
       <c r="D44" s="1">
@@ -2417,16 +2459,16 @@
       <c r="K44" s="1">
         <v>0.96523511932206274</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="17">
+      <c r="A45" s="21"/>
+      <c r="B45" s="14">
         <v>5</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="11">
         <v>0.25809506208116911</v>
       </c>
       <c r="D45" s="1">
@@ -2453,43 +2495,43 @@
       <c r="K45" s="1">
         <v>0.80628573301358997</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="12">
         <v>0.49424068086915879</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>3.521575728248405E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>0.984171210834212</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>5.9435560557170593E-2</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>2.0550529179158561E-2</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>8.3497767782426902E-2</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="3">
         <v>0.60528216981776684</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <v>2.5837819669194632E-2</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>0.69306906681929803</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="4">
         <v>0.25431523989786847</v>
       </c>
     </row>

--- a/results/output_favorite_first_True_formatted.xlsx
+++ b/results/output_favorite_first_True_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF8616-72D8-49A9-A10A-ED0808744D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D99B1-ADAE-4177-9CFF-3A19C38E5ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -368,25 +368,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,15 +428,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +836,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,87 +848,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="7">
         <v>0.6</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="7">
         <v>0.7</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="7">
         <v>0.8</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="7">
         <v>0.9</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>2009</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="23">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>0.37707693808859449</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="19">
         <v>0.55118106312928905</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="19">
         <v>0.27811883987907587</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="19">
         <v>0.84727189453318297</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="19">
         <v>0.43875174005868439</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="19">
         <v>6.3822902780311885E-2</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="19">
         <v>0.76423334994776893</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="19">
         <v>0.87714285193077257</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="19">
         <v>0.26417449276023308</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="17">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>0.98069537340370339</v>
       </c>
       <c r="D3" s="1">
@@ -925,16 +955,16 @@
       <c r="K3" s="1">
         <v>0.6435053599235474</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>0.1050297772392612</v>
       </c>
       <c r="D4" s="1">
@@ -961,16 +991,16 @@
       <c r="K4" s="1">
         <v>0.22776952897795549</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="17">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.80821331098292482</v>
       </c>
       <c r="D5" s="1">
@@ -997,90 +1027,90 @@
       <c r="K5" s="1">
         <v>0.92994859946152197</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.17251629001293001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.79617505667986888</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.13543315191841659</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.65157741392840718</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>7.2740807504380722E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>6.2892501719840066E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.80541383260395016</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0.47903758092566617</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>0.87297339902298754</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="24">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.1591838346151766</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>0.64909450923410617</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0.40934081832100189</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.49374653161453308</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.22181529972497341</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>0.15459332558731581</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>0.900267467314398</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>0.85426595710767628</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>0.22851738644749139</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="17">
+      <c r="A8" s="21"/>
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>0.89341593971625244</v>
       </c>
       <c r="D8" s="1">
@@ -1107,16 +1137,16 @@
       <c r="K8" s="1">
         <v>0.69741664349612176</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17">
+      <c r="A9" s="21"/>
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>0.8228683591075332</v>
       </c>
       <c r="D9" s="1">
@@ -1143,16 +1173,16 @@
       <c r="K9" s="1">
         <v>0.86959795924498817</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="17">
+      <c r="A10" s="21"/>
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>0.4956574949619359</v>
       </c>
       <c r="D10" s="1">
@@ -1179,16 +1209,16 @@
       <c r="K10" s="1">
         <v>0.20644958851198969</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>0.21848951673096059</v>
       </c>
       <c r="D11" s="1">
@@ -1215,18 +1245,18 @@
       <c r="K11" s="1">
         <v>0.54742913214721645</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="21">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>0.67738130698606591</v>
       </c>
       <c r="D12" s="1">
@@ -1253,16 +1283,16 @@
       <c r="K12" s="1">
         <v>0.23450964104973329</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>8.139270927935191E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="17">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>0.75167428310669715</v>
       </c>
       <c r="D13" s="1">
@@ -1289,16 +1319,16 @@
       <c r="K13" s="1">
         <v>0.31330599778365231</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>0.92777027572339965</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="17">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>0.1043869319590478</v>
       </c>
       <c r="D14" s="1">
@@ -1325,16 +1355,16 @@
       <c r="K14" s="1">
         <v>1.8943023104937669E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>0.30410482773072411</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="17">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14">
         <v>5</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>0.22254398524213709</v>
       </c>
       <c r="D15" s="1">
@@ -1361,16 +1391,16 @@
       <c r="K15" s="1">
         <v>1.9380337192093311E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.13660227779514089</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>0.28342222963746838</v>
       </c>
       <c r="D16" s="1">
@@ -1397,18 +1427,18 @@
       <c r="K16" s="1">
         <v>0.1141593268574079</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>0.35342909246945042</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>0.66445804542194309</v>
       </c>
       <c r="D17" s="1">
@@ -1435,16 +1465,16 @@
       <c r="K17" s="1">
         <v>9.0466194163853375E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>0.48635005784031538</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="17">
+      <c r="A18" s="26"/>
+      <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>0.30594853085894252</v>
       </c>
       <c r="D18" s="1">
@@ -1471,16 +1501,16 @@
       <c r="K18" s="1">
         <v>0.19710506424775431</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>0.17516068843096691</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="17">
+      <c r="A19" s="26"/>
+      <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>0.64707228089741031</v>
       </c>
       <c r="D19" s="1">
@@ -1507,16 +1537,16 @@
       <c r="K19" s="1">
         <v>8.2233403582286257E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>0.91205598447483283</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="17">
+      <c r="A20" s="26"/>
+      <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>0.48810260477735362</v>
       </c>
       <c r="D20" s="1">
@@ -1543,16 +1573,16 @@
       <c r="K20" s="1">
         <v>0.16068533644314081</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>0.19785096406709851</v>
       </c>
       <c r="D21" s="1">
@@ -1579,18 +1609,18 @@
       <c r="K21" s="1">
         <v>2.1323022439133869E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>0.17033757221511939</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="14">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>0.27746719554999139</v>
       </c>
       <c r="D22" s="1">
@@ -1617,16 +1647,16 @@
       <c r="K22" s="1">
         <v>9.232732325107107E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>0.2291158014360897</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="17">
+      <c r="A23" s="26"/>
+      <c r="B23" s="14">
         <v>3</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>0.24444496497419749</v>
       </c>
       <c r="D23" s="1">
@@ -1653,16 +1683,16 @@
       <c r="K23" s="1">
         <v>0.8940856401945485</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>0.88469436272600843</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="17">
+      <c r="A24" s="26"/>
+      <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>0.22127180863367649</v>
       </c>
       <c r="D24" s="1">
@@ -1689,16 +1719,16 @@
       <c r="K24" s="1">
         <v>3.610787163067819E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>0.61619549702010556</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="17">
+      <c r="A25" s="26"/>
+      <c r="B25" s="14">
         <v>5</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>0.190732797998558</v>
       </c>
       <c r="D25" s="1">
@@ -1725,16 +1755,16 @@
       <c r="K25" s="1">
         <v>0.16999035214485811</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>0.12790455547933591</v>
       </c>
       <c r="D26" s="1">
@@ -1761,18 +1791,18 @@
       <c r="K26" s="1">
         <v>5.456496499022867E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>0.28233542286354402</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>0.8831405161162259</v>
       </c>
       <c r="D27" s="1">
@@ -1799,16 +1829,16 @@
       <c r="K27" s="1">
         <v>0.76568596814099776</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>0.25066256173511331</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="17">
+      <c r="A28" s="26"/>
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>8.4252207760154629E-2</v>
       </c>
       <c r="D28" s="1">
@@ -1835,16 +1865,16 @@
       <c r="K28" s="1">
         <v>0.2373741138737411</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>0.2941461937827512</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="17">
+      <c r="A29" s="26"/>
+      <c r="B29" s="14">
         <v>4</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>0.14996453932477219</v>
       </c>
       <c r="D29" s="1">
@@ -1871,16 +1901,16 @@
       <c r="K29" s="1">
         <v>9.4823527054843648E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="17">
+      <c r="A30" s="26"/>
+      <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>2.504327011918139E-2</v>
       </c>
       <c r="D30" s="1">
@@ -1907,16 +1937,16 @@
       <c r="K30" s="1">
         <v>0.90667779863216924</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>2.4814107430780389E-2</v>
       </c>
       <c r="D31" s="1">
@@ -1943,18 +1973,18 @@
       <c r="K31" s="1">
         <v>0.21018150100625529</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>0.1197884028329073</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="A32" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="14">
         <v>2</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>0.60156785891670495</v>
       </c>
       <c r="D32" s="1">
@@ -1981,16 +2011,16 @@
       <c r="K32" s="1">
         <v>0.95495568575568091</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>7.2146134604733972E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="17">
+      <c r="A33" s="26"/>
+      <c r="B33" s="14">
         <v>3</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <v>0.56327153069004243</v>
       </c>
       <c r="D33" s="1">
@@ -2017,16 +2047,16 @@
       <c r="K33" s="1">
         <v>0.16920947689361029</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>0.9855971487467069</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="17">
+      <c r="A34" s="26"/>
+      <c r="B34" s="14">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <v>0.1009551865840566</v>
       </c>
       <c r="D34" s="1">
@@ -2053,16 +2083,16 @@
       <c r="K34" s="1">
         <v>0.61869573830881541</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>0.97113499650028201</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="17">
+      <c r="A35" s="26"/>
+      <c r="B35" s="14">
         <v>5</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <v>0.24001084523327901</v>
       </c>
       <c r="D35" s="1">
@@ -2089,16 +2119,16 @@
       <c r="K35" s="1">
         <v>0.56195557201376967</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>0.59281960560287672</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="17" t="s">
+    <row r="36" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>0.2732946427672891</v>
       </c>
       <c r="D36" s="1">
@@ -2125,18 +2155,18 @@
       <c r="K36" s="1">
         <v>0.32767349479839808</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>0.30958834839140847</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B37" s="17">
+      <c r="A37" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="14">
         <v>2</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>6.1523860155277221E-2</v>
       </c>
       <c r="D37" s="1">
@@ -2163,16 +2193,16 @@
       <c r="K37" s="1">
         <v>7.8098872606127134E-3</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>0.46858903861154172</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="17">
+      <c r="A38" s="26"/>
+      <c r="B38" s="14">
         <v>3</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>0.67727047557009556</v>
       </c>
       <c r="D38" s="1">
@@ -2199,16 +2229,16 @@
       <c r="K38" s="1">
         <v>0.65379820872680083</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>0.50443845617979965</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="17">
+      <c r="A39" s="26"/>
+      <c r="B39" s="14">
         <v>4</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>0.2277255611989473</v>
       </c>
       <c r="D39" s="1">
@@ -2235,16 +2265,16 @@
       <c r="K39" s="1">
         <v>0.88596044887870107</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>0.65783370254355722</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="17">
+      <c r="A40" s="26"/>
+      <c r="B40" s="14">
         <v>5</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>0.52625873209065954</v>
       </c>
       <c r="D40" s="1">
@@ -2271,16 +2301,16 @@
       <c r="K40" s="1">
         <v>0.46586202744350391</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <v>0.53199825603919026</v>
       </c>
       <c r="D41" s="1">
@@ -2307,18 +2337,18 @@
       <c r="K41" s="1">
         <v>3.7892700339138503E-2</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>0.28006644836492622</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="17">
+      <c r="A42" s="21">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>0.91075228765139471</v>
       </c>
       <c r="D42" s="1">
@@ -2345,16 +2375,16 @@
       <c r="K42" s="1">
         <v>0.63454662446279575</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>0.39841233208880272</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="17">
+      <c r="A43" s="21"/>
+      <c r="B43" s="14">
         <v>3</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="11">
         <v>0.76525066982076462</v>
       </c>
       <c r="D43" s="1">
@@ -2381,16 +2411,16 @@
       <c r="K43" s="1">
         <v>0.96486407655078377</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>0.44382029656324562</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="17">
+      <c r="A44" s="21"/>
+      <c r="B44" s="14">
         <v>4</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="11">
         <v>0.79325030882830228</v>
       </c>
       <c r="D44" s="1">
@@ -2417,16 +2447,16 @@
       <c r="K44" s="1">
         <v>0.96523511932206274</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="17">
+      <c r="A45" s="21"/>
+      <c r="B45" s="14">
         <v>5</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="11">
         <v>0.25809506208116911</v>
       </c>
       <c r="D45" s="1">
@@ -2453,43 +2483,43 @@
       <c r="K45" s="1">
         <v>0.80628573301358997</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="12">
         <v>0.49424068086915879</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>3.521575728248405E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>0.984171210834212</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>5.9435560557170593E-2</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>2.0550529179158561E-2</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>8.3497767782426902E-2</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="3">
         <v>0.60528216981776684</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <v>2.5837819669194632E-2</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>0.69306906681929803</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="4">
         <v>0.25431523989786847</v>
       </c>
     </row>

--- a/results/output_favorite_first_True_formatted.xlsx
+++ b/results/output_favorite_first_True_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\mathsport2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA07F95-9835-4343-8B66-5B9AD24472C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B2BB9-5A31-4AD4-9995-9EB7254B6882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>US Open</t>
   </si>
   <si>
-    <t>All set groups</t>
-  </si>
-  <si>
     <t>All sets</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Set number</t>
+  </si>
+  <si>
+    <t>All groups</t>
   </si>
 </sst>
 </file>
@@ -848,23 +848,25 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="12" width="7" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -878,23 +880,23 @@
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
+      <c r="G1" s="7">
+        <v>0.6</v>
       </c>
       <c r="H1" s="7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I1" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J1" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K1" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="L1" s="8">
         <v>1</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -917,22 +919,22 @@
         <v>0.84727189453318297</v>
       </c>
       <c r="G2" s="19">
+        <v>6.3822902780311885E-2</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0.76423334994776893</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0.87714285193077257</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0.26417449276023308</v>
+      </c>
+      <c r="K2" s="19">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20">
         <v>0.43875174005868439</v>
-      </c>
-      <c r="H2" s="19">
-        <v>6.3822902780311885E-2</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0.76423334994776893</v>
-      </c>
-      <c r="J2" s="19">
-        <v>0.87714285193077257</v>
-      </c>
-      <c r="K2" s="19">
-        <v>0.26417449276023308</v>
-      </c>
-      <c r="L2" s="20">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -953,22 +955,22 @@
         <v>0.70253282001472517</v>
       </c>
       <c r="G3" s="1">
+        <v>0.73789905748175233</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9.0574701618287554E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.92736674887990334</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.6435053599235474</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.56062020238586885</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.73789905748175233</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.0574701618287554E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.92736674887990334</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.6435053599235474</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -989,22 +991,22 @@
         <v>0.83721483071002112</v>
       </c>
       <c r="G4" s="1">
+        <v>4.9039634820702283E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.89298832156682273</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.63611030873966179</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.22776952897795549</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
         <v>1.297429020683416E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.9039634820702283E-4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.89298832156682273</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.63611030873966179</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.22776952897795549</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,28 +1027,28 @@
         <v>0.50898513637230325</v>
       </c>
       <c r="G5" s="1">
+        <v>0.56658981687302434</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.0081758789084727E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.6252449946618395E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.92994859946152197</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
         <v>8.3697462588145477E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.56658981687302434</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6.0081758789084727E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7.6252449946618395E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.92994859946152197</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12">
         <v>0.17251629001293001</v>
@@ -1061,22 +1063,22 @@
         <v>0.65157741392840718</v>
       </c>
       <c r="G6" s="3">
+        <v>6.2892501719840066E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.80541383260395016</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.47903758092566617</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.87297339902298754</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>7.2740807504380722E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>6.2892501719840066E-3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.80541383260395016</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.47903758092566617</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.87297339902298754</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1099,22 +1101,22 @@
         <v>0.49374653161453308</v>
       </c>
       <c r="G7" s="5">
+        <v>0.15459332558731581</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.900267467314398</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.85426595710767628</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.22851738644749139</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <v>0.22181529972497341</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.15459332558731581</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.900267467314398</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.85426595710767628</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.22851738644749139</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1135,22 +1137,22 @@
         <v>0.55335325280781578</v>
       </c>
       <c r="G8" s="1">
+        <v>0.19485736821006691</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.1079038816181235</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.87471135867692174</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.69741664349612176</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
         <v>0.68947474132486852</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.19485736821006691</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.1079038816181235</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.87471135867692174</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.69741664349612176</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1171,22 +1173,22 @@
         <v>0.47410202092883202</v>
       </c>
       <c r="G9" s="1">
+        <v>0.99639200749319334</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.77150324423571215</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.92989063174599162</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.86959795924498817</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.86814780146513637</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.99639200749319334</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.77150324423571215</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.92989063174599162</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.86959795924498817</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1207,28 +1209,28 @@
         <v>0.42679037583816098</v>
       </c>
       <c r="G10" s="1">
+        <v>0.14364962900468981</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.13028837546417529</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.62244182050633379</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.20644958851198969</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.12727626531502739</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.14364962900468981</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.13028837546417529</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.62244182050633379</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.20644958851198969</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="11">
         <v>0.21848951673096059</v>
@@ -1243,22 +1245,22 @@
         <v>0.50630769433043077</v>
       </c>
       <c r="G11" s="1">
+        <v>0.65719089995785618</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.2354567405079406</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.6985836570750108</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.54742913214721645</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.18729130216800269</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.65719089995785618</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.2354567405079406</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.6985836570750108</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.54742913214721645</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1281,22 +1283,22 @@
         <v>0.34845888882563852</v>
       </c>
       <c r="G12" s="1">
+        <v>0.48157071833532378</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.16669617266253611</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.70444695691975801</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.23450964104973329</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.139270927935191E-2</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.11289258497248909</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.48157071833532378</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.16669617266253611</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.70444695691975801</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.23450964104973329</v>
-      </c>
-      <c r="L12" s="2">
-        <v>8.139270927935191E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1317,22 +1319,22 @@
         <v>0.62110538967841267</v>
       </c>
       <c r="G13" s="1">
+        <v>0.2451154428420752</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.85242772871327688</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.44023752394597948</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.31330599778365231</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.92777027572339965</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.13806644258141951</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.2451154428420752</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.85242772871327688</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.44023752394597948</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.31330599778365231</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.92777027572339965</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1353,22 +1355,22 @@
         <v>0.1607469552044325</v>
       </c>
       <c r="G14" s="1">
+        <v>0.45035197428865842</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.13456000761635439</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1048998455548502</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.8943023104937669E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.30410482773072411</v>
+      </c>
+      <c r="L14" s="2">
         <v>3.0755273283921799E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.45035197428865842</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.13456000761635439</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.1048998455548502</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.8943023104937669E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.30410482773072411</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,28 +1391,28 @@
         <v>0.35948069200832511</v>
       </c>
       <c r="G15" s="1">
+        <v>0.27917837965976422</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.45160542387219088</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.35781042932981738</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.9380337192093311E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.13660227779514089</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.19223057115124931</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.27917837965976422</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.45160542387219088</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.35781042932981738</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.9380337192093311E-2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.13660227779514089</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="11">
         <v>0.28342222963746838</v>
@@ -1425,22 +1427,22 @@
         <v>0.49117524718993161</v>
       </c>
       <c r="G16" s="1">
+        <v>0.79484796045125172</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.78125521906388129</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.23328412312719321</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.1141593268574079</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.35342909246945042</v>
+      </c>
+      <c r="L16" s="2">
         <v>0.17570693214160649</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.79484796045125172</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.78125521906388129</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.23328412312719321</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.1141593268574079</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.35342909246945042</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,22 +1465,22 @@
         <v>0.2178507923474079</v>
       </c>
       <c r="G17" s="1">
+        <v>0.86747552141106565</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.11939017976457</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.85369074579925286</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9.0466194163853375E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.48635005784031538</v>
+      </c>
+      <c r="L17" s="2">
         <v>0.69585129334598017</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.86747552141106565</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.11939017976457</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.85369074579925286</v>
-      </c>
-      <c r="K17" s="1">
-        <v>9.0466194163853375E-2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.48635005784031538</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1499,22 +1501,22 @@
         <v>0.47635561982653568</v>
       </c>
       <c r="G18" s="1">
+        <v>0.3588208790241193</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.47585847029765832</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.5635013038066745E-4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.19710506424775431</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.17516068843096691</v>
+      </c>
+      <c r="L18" s="2">
         <v>0.37279523718885171</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.3588208790241193</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.47585847029765832</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7.5635013038066745E-4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.19710506424775431</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.17516068843096691</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1535,22 +1537,22 @@
         <v>0.87946770779977834</v>
       </c>
       <c r="G19" s="1">
+        <v>0.28455085624561388</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.5874839942522216E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.30198239261369458</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8.2233403582286257E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.91205598447483283</v>
+      </c>
+      <c r="L19" s="2">
         <v>0.57787423019588569</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.28455085624561388</v>
-      </c>
-      <c r="I19" s="1">
-        <v>9.5874839942522216E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.30198239261369458</v>
-      </c>
-      <c r="K19" s="1">
-        <v>8.2233403582286257E-2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.91205598447483283</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1571,28 +1573,28 @@
         <v>0.38542491830169212</v>
       </c>
       <c r="G20" s="1">
+        <v>0.35700691349989461</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.90675060948327857</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.37749749756425238</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.16068533644314081</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
         <v>0.57924357753131361</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.35700691349989461</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.90675060948327857</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.37749749756425238</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.16068533644314081</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="11">
         <v>0.19785096406709851</v>
@@ -1607,22 +1609,22 @@
         <v>0.1833565713824141</v>
       </c>
       <c r="G21" s="1">
+        <v>0.40524536126397698</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.55908565147267075</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.1559108020235769E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.1323022439133869E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.17033757221511939</v>
+      </c>
+      <c r="L21" s="2">
         <v>0.48011673182350778</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.40524536126397698</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.55908565147267075</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4.1559108020235769E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.1323022439133869E-2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.17033757221511939</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1645,22 +1647,22 @@
         <v>0.44963944533809808</v>
       </c>
       <c r="G22" s="1">
+        <v>0.89361742196951499</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.50074430779426726</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.95657685592631381</v>
+      </c>
+      <c r="J22" s="1">
+        <v>9.232732325107107E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.2291158014360897</v>
+      </c>
+      <c r="L22" s="2">
         <v>0.34128054334693753</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.89361742196951499</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.50074430779426726</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.95657685592631381</v>
-      </c>
-      <c r="K22" s="1">
-        <v>9.232732325107107E-2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.2291158014360897</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,22 +1683,22 @@
         <v>0.98680921124116294</v>
       </c>
       <c r="G23" s="1">
+        <v>0.90796880529504576</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.18078885854197191</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.40381446325780712</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.8940856401945485</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.88469436272600843</v>
+      </c>
+      <c r="L23" s="2">
         <v>0.25308349369269528</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.90796880529504576</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.18078885854197191</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.40381446325780712</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.8940856401945485</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.88469436272600843</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1717,22 +1719,22 @@
         <v>0.33667857107455301</v>
       </c>
       <c r="G24" s="1">
+        <v>8.2358873785257414E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.016394798291786E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.86746284506071736</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.610787163067819E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.61619549702010556</v>
+      </c>
+      <c r="L24" s="2">
         <v>1.3015003380911769E-3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>8.2358873785257414E-2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.016394798291786E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.86746284506071736</v>
-      </c>
-      <c r="K24" s="1">
-        <v>3.610787163067819E-2</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.61619549702010556</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1753,28 +1755,28 @@
         <v>0.79194559130251596</v>
       </c>
       <c r="G25" s="1">
+        <v>0.1172385262920585</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.85209086973376325</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.23976931846195321</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.16999035214485811</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
         <v>0.63625277436458705</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.1172385262920585</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.85209086973376325</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.23976931846195321</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.16999035214485811</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="11">
         <v>0.12790455547933591</v>
@@ -1789,22 +1791,22 @@
         <v>0.90549033302934467</v>
       </c>
       <c r="G26" s="1">
+        <v>0.81211880695134764</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.2455838930421908E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.3695093947843282</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.456496499022867E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.28233542286354402</v>
+      </c>
+      <c r="L26" s="2">
         <v>1.0483648810657E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.81211880695134764</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2.2455838930421908E-2</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.3695093947843282</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5.456496499022867E-2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.28233542286354402</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,22 +1829,22 @@
         <v>7.480559003992604E-2</v>
       </c>
       <c r="G27" s="1">
+        <v>0.25677340106935798</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.76503049632887032</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9.5076375878800246E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.76568596814099776</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.25066256173511331</v>
+      </c>
+      <c r="L27" s="2">
         <v>0.75712671485060445</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.25677340106935798</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.76503049632887032</v>
-      </c>
-      <c r="J27" s="1">
-        <v>9.5076375878800246E-2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.76568596814099776</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.25066256173511331</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,22 +1865,22 @@
         <v>0.27172055142324808</v>
       </c>
       <c r="G28" s="1">
+        <v>0.2269089780657669</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.79840959768154995</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.4465632065238665</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.2373741138737411</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.2941461937827512</v>
+      </c>
+      <c r="L28" s="2">
         <v>8.1493389012767148E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.2269089780657669</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.79840959768154995</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.4465632065238665</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.2373741138737411</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.2941461937827512</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1899,22 +1901,22 @@
         <v>0.77757121877058766</v>
       </c>
       <c r="G29" s="1">
+        <v>0.44034293888249421</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.82813381805335218</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.14814031367861319</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9.4823527054843648E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
         <v>0.11349449457454509</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.44034293888249421</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.82813381805335218</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.14814031367861319</v>
-      </c>
-      <c r="K29" s="1">
-        <v>9.4823527054843648E-2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,28 +1937,28 @@
         <v>0.45381012687300798</v>
       </c>
       <c r="G30" s="1">
+        <v>6.3420798975942327E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.693907120022494</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.52044578663123486</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.90667779863216924</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <v>8.9020916527731142E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>6.3420798975942327E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.693907120022494</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.52044578663123486</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.90667779863216924</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="11">
         <v>2.4814107430780389E-2</v>
@@ -1971,22 +1973,22 @@
         <v>0.16336330863306389</v>
       </c>
       <c r="G31" s="1">
+        <v>0.31028941739584592</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.72497853471632268</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.1833056570435438E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.21018150100625529</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.1197884028329073</v>
+      </c>
+      <c r="L31" s="2">
         <v>1.481239070372053E-2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.31028941739584592</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.72497853471632268</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.1833056570435438E-2</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.21018150100625529</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.1197884028329073</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,22 +2011,22 @@
         <v>0.1943599725315355</v>
       </c>
       <c r="G32" s="1">
+        <v>0.95573351187885369</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.59585294414307621</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.95876351624005518</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.95495568575568091</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7.2146134604733972E-2</v>
+      </c>
+      <c r="L32" s="2">
         <v>0.64365177743516133</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.95573351187885369</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.59585294414307621</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.95876351624005518</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.95495568575568091</v>
-      </c>
-      <c r="L32" s="2">
-        <v>7.2146134604733972E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2045,22 +2047,22 @@
         <v>0.34069505905828867</v>
       </c>
       <c r="G33" s="1">
+        <v>0.41080669519281748</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.92879075370348729</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.8674909118375147</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.16920947689361029</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.9855971487467069</v>
+      </c>
+      <c r="L33" s="2">
         <v>0.44241720707024751</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.41080669519281748</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.92879075370348729</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.8674909118375147</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.16920947689361029</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.9855971487467069</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2081,22 +2083,22 @@
         <v>0.1912029681213587</v>
       </c>
       <c r="G34" s="1">
+        <v>0.12544582764446169</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.1016923257125497</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.82758470053386035</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.61869573830881541</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.97113499650028201</v>
+      </c>
+      <c r="L34" s="2">
         <v>3.8744208090302427E-2</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.12544582764446169</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.1016923257125497</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.82758470053386035</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.61869573830881541</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.97113499650028201</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2117,28 +2119,28 @@
         <v>3.5464481273134167E-2</v>
       </c>
       <c r="G35" s="1">
+        <v>0.19681150732360361</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6.7237227788972564E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7.3785364522088726E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.56195557201376967</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.59281960560287672</v>
+      </c>
+      <c r="L35" s="2">
         <v>7.5713873336116233E-3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.19681150732360361</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6.7237227788972564E-2</v>
-      </c>
-      <c r="J35" s="1">
-        <v>7.3785364522088726E-2</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.56195557201376967</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0.59281960560287672</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="11">
         <v>0.2732946427672891</v>
@@ -2153,22 +2155,22 @@
         <v>0.92632734619429535</v>
       </c>
       <c r="G36" s="1">
+        <v>0.1172186439156437</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.33614928793653348</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.57872943582526548</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.32767349479839808</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.30958834839140847</v>
+      </c>
+      <c r="L36" s="2">
         <v>6.2271046274497532E-2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.1172186439156437</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.33614928793653348</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.57872943582526548</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.32767349479839808</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0.30958834839140847</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,22 +2193,22 @@
         <v>0.96509592766697327</v>
       </c>
       <c r="G37" s="1">
+        <v>0.53134095416770077</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7.6086973453246776E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.39112688543646817</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7.8098872606127134E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.46858903861154172</v>
+      </c>
+      <c r="L37" s="2">
         <v>6.8966846859747966E-2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.53134095416770077</v>
-      </c>
-      <c r="I37" s="1">
-        <v>7.6086973453246776E-2</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.39112688543646817</v>
-      </c>
-      <c r="K37" s="1">
-        <v>7.8098872606127134E-3</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.46858903861154172</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,22 +2229,22 @@
         <v>0.14550396811759231</v>
       </c>
       <c r="G38" s="1">
+        <v>0.85163419587748312</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.276740664082169E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.63621394105599594</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.65379820872680083</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.50443845617979965</v>
+      </c>
+      <c r="L38" s="2">
         <v>0.1102447518119649</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.85163419587748312</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5.276740664082169E-2</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.63621394105599594</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.65379820872680083</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.50443845617979965</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2263,22 +2265,22 @@
         <v>0.39000037851998381</v>
       </c>
       <c r="G39" s="1">
+        <v>0.72340275091853667</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.38226173742370539</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.90845743096167575</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.88596044887870107</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.65783370254355722</v>
+      </c>
+      <c r="L39" s="2">
         <v>0.44558887019236942</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.72340275091853667</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.38226173742370539</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.90845743096167575</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.88596044887870107</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.65783370254355722</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,28 +2301,28 @@
         <v>0.46512481805105971</v>
       </c>
       <c r="G40" s="1">
+        <v>0.78261393378818378</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.61325682614070809</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.728812206596259</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.46586202744350391</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
         <v>0.91540519679528964</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.78261393378818378</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.61325682614070809</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.728812206596259</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.46586202744350391</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="11">
         <v>0.53199825603919026</v>
@@ -2335,22 +2337,22 @@
         <v>0.48451935487376052</v>
       </c>
       <c r="G41" s="1">
+        <v>0.81444211720696003</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4.6826820398099711E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.70667233223482584</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.7892700339138503E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.28006644836492622</v>
+      </c>
+      <c r="L41" s="2">
         <v>8.1705450561308401E-2</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.81444211720696003</v>
-      </c>
-      <c r="I41" s="1">
-        <v>4.6826820398099711E-2</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.70667233223482584</v>
-      </c>
-      <c r="K41" s="1">
-        <v>3.7892700339138503E-2</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0.28006644836492622</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2373,22 +2375,22 @@
         <v>0.53003144977359162</v>
       </c>
       <c r="G42" s="1">
+        <v>4.263414277437394E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.39307003886354958</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.26505907295655229</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.63454662446279575</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.39841233208880272</v>
+      </c>
+      <c r="L42" s="2">
         <v>0.23920956105242211</v>
-      </c>
-      <c r="H42" s="1">
-        <v>4.263414277437394E-2</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.39307003886354958</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.26505907295655229</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.63454662446279575</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.39841233208880272</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2409,22 +2411,22 @@
         <v>0.16485249918192579</v>
       </c>
       <c r="G43" s="1">
+        <v>0.48122033143750542</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.73007758117745847</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.47341311925720059</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.96486407655078377</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.44382029656324562</v>
+      </c>
+      <c r="L43" s="2">
         <v>0.31993157337359951</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.48122033143750542</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.73007758117745847</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.47341311925720059</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.96486407655078377</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.44382029656324562</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2445,22 +2447,22 @@
         <v>0.6504140102960263</v>
       </c>
       <c r="G44" s="1">
+        <v>0.7043485082482559</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.57732800079954494</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.586133268500836E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.96523511932206274</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
         <v>0.15661430506163129</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.7043485082482559</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.57732800079954494</v>
-      </c>
-      <c r="J44" s="1">
-        <v>4.586133268500836E-2</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.96523511932206274</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2481,28 +2483,28 @@
         <v>5.9852567639115062E-2</v>
       </c>
       <c r="G45" s="1">
+        <v>0.84138360844767091</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.2200700464431149E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.39901538482889198</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.80628573301358997</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
         <v>0.1904373480384032</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.84138360844767091</v>
-      </c>
-      <c r="I45" s="1">
-        <v>5.2200700464431149E-2</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.39901538482889198</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.80628573301358997</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="12">
         <v>0.49424068086915879</v>
@@ -2547,7 +2549,29 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G46">
+  <conditionalFormatting sqref="C46:G46">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:L46">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G45">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -2558,7 +2582,7 @@
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:L46">
+  <conditionalFormatting sqref="H2:L45">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
